--- a/databases/ATA-25_equipment-furnishing.xlsx
+++ b/databases/ATA-25_equipment-furnishing.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alicia\Work\Git\brightway\databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0851AFB-7B0F-47A6-9893-52769BF387C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATA-25_equipment-furnishing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="104">
   <si>
     <t>Project parameters</t>
   </si>
@@ -223,9 +229,6 @@
     <t>market for aluminium, primary, ingot</t>
   </si>
   <si>
-    <t>ecoinvent_3.9.1_cutoff</t>
-  </si>
-  <si>
     <t>IAI Area, EU27 &amp; EFTA</t>
   </si>
   <si>
@@ -323,13 +326,19 @@
   </si>
   <si>
     <t>polyurethane, flexible foam</t>
+  </si>
+  <si>
+    <t>cutoff391</t>
+  </si>
+  <si>
+    <t>materials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +384,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +470,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,6 +522,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,19 +715,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -682,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -690,7 +750,7 @@
         <v>3981.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -698,7 +758,7 @@
         <v>4259.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -706,7 +766,7 @@
         <v>373.71</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -714,7 +774,7 @@
         <v>433.48</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -722,15 +782,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>19.022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>19.021999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -738,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -746,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -754,7 +814,7 @@
         <v>271.31</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -762,23 +822,23 @@
         <v>366.27</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>891.5700000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>891.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>8.610799999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>8.6107999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -786,7 +846,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -794,7 +854,7 @@
         <v>853.21</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -802,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -810,7 +870,7 @@
         <v>404.57</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -818,7 +878,7 @@
         <v>58.189</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -826,7 +886,7 @@
         <v>3003.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -834,15 +894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>66.91800000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>66.918000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -850,7 +910,7 @@
         <v>163.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -858,15 +918,15 @@
         <v>330.69</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>15.591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>15.590999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -874,15 +934,15 @@
         <v>342.72</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>718.1799999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>718.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -890,15 +950,15 @@
         <v>913.24</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>274.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>274.52999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -906,7 +966,7 @@
         <v>715.08</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -914,7 +974,7 @@
         <v>875.78</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -922,7 +982,7 @@
         <v>181.45</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -930,7 +990,7 @@
         <v>5074.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -938,7 +998,7 @@
         <v>2710.2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -946,15 +1006,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>398.9865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>398.98649999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -962,7 +1022,7 @@
         <v>2311.2001</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -970,7 +1030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -978,7 +1038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -986,7 +1046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -994,7 +1054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1002,7 +1062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1010,7 +1070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1018,7 +1078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1026,7 +1086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1034,7 +1094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1065,12 +1125,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -1099,7 +1159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -1122,7 +1182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1151,7 +1211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1219,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -1167,7 +1227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -1175,7 +1235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1183,7 +1243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -1191,7 +1251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -1199,12 +1259,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1256,7 +1316,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1264,10 +1324,10 @@
         <v>135.6535945</v>
       </c>
       <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
         <v>69</v>
-      </c>
-      <c r="D66" t="s">
-        <v>70</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
@@ -1276,24 +1336,24 @@
         <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H66">
         <v>0.5</v>
       </c>
       <c r="I66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>73</v>
       </c>
       <c r="B67">
         <v>135.6535945</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
         <v>47</v>
@@ -1305,32 +1365,32 @@
         <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H67">
         <v>0.5</v>
       </c>
       <c r="I67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -1338,15 +1398,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -1354,7 +1414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -1362,15 +1422,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -1387,26 +1447,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -1435,9 +1495,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1455,15 +1515,15 @@
         <v>60</v>
       </c>
       <c r="I81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>61</v>
       </c>
       <c r="B82">
-        <v>1194.36</v>
+        <v>1194.3599999999999</v>
       </c>
       <c r="C82" t="s">
         <v>62</v>
@@ -1478,7 +1538,7 @@
         <v>64</v>
       </c>
       <c r="G82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -1487,15 +1547,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>1592.48</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
         <v>47</v>
@@ -1507,24 +1567,24 @@
         <v>64</v>
       </c>
       <c r="G83" t="s">
+        <v>81</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>82</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84">
-        <v>1194.36</v>
+        <v>1194.3599999999999</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
         <v>47</v>
@@ -1536,32 +1596,32 @@
         <v>64</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -1569,15 +1629,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>50</v>
       </c>
@@ -1585,7 +1645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -1593,15 +1653,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -1618,26 +1678,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E94" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -1666,9 +1726,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1686,10 +1746,10 @@
         <v>60</v>
       </c>
       <c r="I98" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -1697,7 +1757,7 @@
         <v>853.21</v>
       </c>
       <c r="C99" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
         <v>47</v>
@@ -1718,23 +1778,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>44</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>46</v>
       </c>
@@ -1742,15 +1802,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -1766,15 +1826,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -1791,26 +1851,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E109" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -1839,9 +1899,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1859,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="I113" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -1870,10 +1930,10 @@
         <v>1501.7</v>
       </c>
       <c r="C114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" t="s">
         <v>69</v>
-      </c>
-      <c r="D114" t="s">
-        <v>70</v>
       </c>
       <c r="E114" t="s">
         <v>63</v>
@@ -1882,24 +1942,24 @@
         <v>64</v>
       </c>
       <c r="G114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H114">
         <v>0.5</v>
       </c>
       <c r="I114" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115">
-        <v>600.6800000000001</v>
+        <v>600.68000000000006</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D115" t="s">
         <v>47</v>
@@ -1911,27 +1971,27 @@
         <v>64</v>
       </c>
       <c r="G115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H115">
         <v>0.2</v>
       </c>
       <c r="I115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
-        <v>99</v>
       </c>
       <c r="B116">
         <v>901.02</v>
       </c>
       <c r="C116" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E116" t="s">
         <v>63</v>
@@ -1940,16 +2000,17 @@
         <v>64</v>
       </c>
       <c r="G116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H116">
         <v>0.3</v>
       </c>
       <c r="I116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>